--- a/biology/Botanique/Herbe_aux_mouches/Herbe_aux_mouches.xlsx
+++ b/biology/Botanique/Herbe_aux_mouches/Herbe_aux_mouches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inula conyza
 L'herbe aux mouches ou œil de cheval (Inula conyza), encore appelée inule squarreuse, est une espèce de plante à fleurs de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Inula conyzae (Griess.) Meikle (1985)
 Inula squarrosa Bernh. ex DC.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, poilue, aux tiges érigées se ramifiant aux extrémités, aux feuilles entières, aux fleurs en petits capitules allongés, sans ligules, jaune-verdâtre.
 </t>
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : corymbe de capitules
@@ -616,7 +634,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Grecs utilisaient l'herbe aux moucherons, sèche, étendue sous le blé pour éloigner les rongeurs ; Palladius consigna cette pratique dans son De re rustica.</t>
         </is>
